--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2652148.852780117</v>
+        <v>2648093.928400612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.143223173</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7908124.261765999</v>
+        <v>7905174.364813902</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956565</v>
       </c>
       <c r="X2" t="n">
-        <v>275.8867738308749</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>21.24059023834186</v>
+        <v>74.8670242453037</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159202</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>273.1902745626022</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779093</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.54550680794377</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.4401449372093</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>239.9984638361478</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>41.98926194258916</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>253.8243076884219</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.0758460238451</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>258.9400640545531</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173253</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>154.0558398218098</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
@@ -1667,13 +1667,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541621</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340426</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453495</v>
+        <v>20.9239119118956</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443508</v>
+        <v>48.81858568179572</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504634</v>
+        <v>67.32610467782405</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074581</v>
+        <v>52.47323292810646</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258553</v>
+        <v>38.04694813994618</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546465</v>
+        <v>37.97339019282529</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523191</v>
+        <v>39.72284161259256</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762405</v>
+        <v>50.5416795349847</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419609</v>
+        <v>37.89393170155674</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536802</v>
+        <v>15.73364728272867</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982394</v>
+        <v>6.632145647184586</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535126</v>
+        <v>84.7580891527119</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.4672642215699</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>1.098310803921576</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822798</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812811</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
         <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>73.47119887762111</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415643</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443884</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627856</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915767</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892494</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131708</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788912</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906105</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351697</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>41.58521707214967</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>194.5629468581738</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415643</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443884</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627856</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915767</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892494</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131708</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788912</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906105</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351697</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
         <v>124.4141011012912</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1010.885049426593</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="C2" t="n">
-        <v>1010.885049426593</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="D2" t="n">
-        <v>1010.885049426593</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="E2" t="n">
-        <v>1010.885049426593</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="F2" t="n">
-        <v>593.9906109565709</v>
+        <v>777.7441318441284</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K2" t="n">
-        <v>187.140511445867</v>
+        <v>242.2021271932824</v>
       </c>
       <c r="L2" t="n">
-        <v>187.140511445867</v>
+        <v>735.5224189118112</v>
       </c>
       <c r="M2" t="n">
-        <v>625.641384291288</v>
+        <v>1236.689201907261</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687144</v>
+        <v>1236.689201907261</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579472</v>
+        <v>1676.72880279959</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710994</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137464</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137464</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T2" t="n">
-        <v>2086.544013137464</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U2" t="n">
-        <v>2086.544013137464</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V2" t="n">
-        <v>2086.544013137464</v>
+        <v>999.0496848552178</v>
       </c>
       <c r="W2" t="n">
-        <v>2086.544013137464</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="X2" t="n">
-        <v>1807.870504217389</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1411.37979513799</v>
+        <v>790.5981662737466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163376</v>
+        <v>657.7430775364683</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764298</v>
+        <v>507.0888470965605</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979101</v>
+        <v>376.9998797180408</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087978</v>
+        <v>240.5533888289285</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192962</v>
+        <v>116.1215827120603</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703885</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703885</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>526.0568244353522</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>526.0568244353522</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896734</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580655</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297052</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750007</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649876</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848784</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527426</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898493</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.98500403178</v>
+        <v>1026.364372110949</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817916</v>
+        <v>837.057294460961</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572989</v>
+        <v>657.7430775364683</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703885</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703885</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703885</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703885</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703885</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703885</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703885</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703885</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>825.8808080020539</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>559.9014628228781</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>276.5710607540558</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>42.49073853703885</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703885</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>733.592398220776</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="C5" t="n">
-        <v>340.4168967237065</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="D5" t="n">
-        <v>340.4168967237065</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="E5" t="n">
-        <v>64.4671244382498</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="F5" t="n">
-        <v>51.61309000863162</v>
+        <v>538.3551089437412</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703885</v>
+        <v>125.1923534317444</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>990.7164596631912</v>
       </c>
       <c r="M5" t="n">
-        <v>1039.443159191858</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="N5" t="n">
-        <v>1565.266048587713</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="O5" t="n">
-        <v>2005.305649480042</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851943</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137464</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078515</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078515</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U5" t="n">
-        <v>1920.030458078515</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V5" t="n">
-        <v>1920.030458078515</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="W5" t="n">
-        <v>1920.030458078515</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="X5" t="n">
-        <v>1530.577853011572</v>
+        <v>951.7038890847563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1134.087143932173</v>
+        <v>951.7038890847563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>792.4694676889814</v>
+        <v>736.06398896222</v>
       </c>
       <c r="C6" t="n">
-        <v>641.8152372490736</v>
+        <v>585.4097585223122</v>
       </c>
       <c r="D6" t="n">
-        <v>511.7262698705539</v>
+        <v>455.3207911437926</v>
       </c>
       <c r="E6" t="n">
-        <v>375.2797789814417</v>
+        <v>318.8743002546803</v>
       </c>
       <c r="F6" t="n">
-        <v>250.8479728645735</v>
+        <v>194.4424941378121</v>
       </c>
       <c r="G6" t="n">
-        <v>130.7881549364379</v>
+        <v>74.38267620967655</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703885</v>
+        <v>74.38267620967655</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703885</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992653</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>845.7959704975785</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>1202.395275544564</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544564</v>
+        <v>1458.085323074339</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135545</v>
+        <v>1619.294926214714</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851943</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851943</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T6" t="n">
-        <v>1975.607487521428</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1765.54434420007</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V6" t="n">
-        <v>1543.004342571137</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W6" t="n">
-        <v>1312.887096704424</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="X6" t="n">
-        <v>1123.580019054436</v>
+        <v>1067.174540327674</v>
       </c>
       <c r="Y6" t="n">
-        <v>944.2658021299427</v>
+        <v>887.8603234031814</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="C7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="D7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="E7" t="n">
-        <v>199.8166733240659</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>442.2393640676496</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>199.8166733240659</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>199.8166733240659</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.8166733240659</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1047.541446264162</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1047.541446264162</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1047.541446264162</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>644.9579213807062</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>228.063482910684</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>952.2962261735861</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1480.107509811048</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1920.147110703377</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2268.334602834899</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1448.036191975559</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.036191975559</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278732</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>589.1399514439072</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>303.7011596858081</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784259</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>652.880006695592</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707835</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244625</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3034.383511434015</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>3034.383511434015</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2772.827891176892</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1009.629923393023</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669550998</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082774</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,16 +5197,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469763</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5218,31 +5218,31 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.523084255381</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592127</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1754.28502983002</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1456.050209620139</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D14" t="n">
-        <v>1165.549762123995</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>857.9069185277276</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>535.9531613448937</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>217.731087120085</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K14" t="n">
         <v>565.7512566404055</v>
@@ -5288,7 +5288,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2626.405335146509</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2350.346981401985</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2055.83505762223</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1754.28502983002</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1778.52287682331</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1778.52287682331</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2184.144245539707</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979808</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362509</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757668</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791398</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469765</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924248</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222407</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069231</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069231</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5929,31 +5929,31 @@
         <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868097</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6014,16 +6014,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960405</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214272</v>
@@ -6209,58 +6209,58 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662618</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377455</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420326</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6361,10 +6361,10 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6379,55 +6379,55 @@
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286444</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.125737939026</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429867</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107028</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.58288023855</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
@@ -6494,7 +6494,7 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
         <v>3060.13197616485</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
         <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6640,7 +6640,7 @@
         <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985474</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144934</v>
+        <v>890.2201666674332</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423751</v>
+        <v>590.5275805474757</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282823</v>
+        <v>294.5666773855437</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267677</v>
+        <v>87.6854793020992</v>
       </c>
       <c r="I32" t="n">
-        <v>68.5426273830455</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>239.7092163698454</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>598.6915723973073</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1092.011864115836</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1638.012764160417</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2165.824047797879</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690207</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462115</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243449</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152275</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.31111849123</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382475</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079627</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398132</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.5426273830455</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590213</v>
+        <v>341.687256555478</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229144</v>
+        <v>288.6839909715321</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233331</v>
+        <v>250.2527302241117</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804395</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913164</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886658</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806371</v>
+        <v>82.44278775748613</v>
       </c>
       <c r="I34" t="n">
-        <v>68.5426273830455</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259936</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359355</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>393.2220734097352</v>
+        <v>312.5128957283705</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515941</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>929.600686923189</v>
+        <v>810.713451354371</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964897</v>
+        <v>1088.287753884378</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381861</v>
+        <v>1323.033455149255</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392298</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422779</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003232</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448267</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279029</v>
+        <v>798.6106513157158</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569845</v>
+        <v>632.4821015969583</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378715</v>
+        <v>515.6036317300062</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524187</v>
+        <v>409.6934228967144</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,16 +7336,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1557.973630753168</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753168</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959969</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666466</v>
+        <v>738.1896826232702</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867574</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648938</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
         <v>103.0149926215175</v>
@@ -7439,22 +7439,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2910.824731686509</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111241</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V41" t="n">
-        <v>2507.847696804893</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2234.289913763314</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>2160.076581563697</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1861.027124474432</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344865</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906089</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832568</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325925</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356986</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690447</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016743975</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529112</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022405</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308019</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
         <v>1323.891465940011</v>
@@ -7588,31 +7588,31 @@
         <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
         <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557618</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
-        <v>689.017947928878</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356545</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1693.618740970509</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1397.884491463573</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1109.884614670374</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>804.7423417770515</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>485.2891552971623</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474917</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2861.290827899428</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2587.733044857849</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2295.721691781038</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1996.672234691773</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344865</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906089</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832568</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325925</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356986</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690447</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,10 +7813,10 @@
         <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308019</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O46" t="n">
         <v>1323.891465940011</v>
@@ -7825,31 +7825,31 @@
         <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
         <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557618</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X46" t="n">
-        <v>689.017947928878</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356545</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>200.688734882098</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>592.6552261890615</v>
+        <v>655.9541253305051</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507698</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8067,10 +8067,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>531.8098497777236</v>
+        <v>591.6011865869446</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.7619605532431</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.345144304511</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>655.9541253305051</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507698</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>270.7370809499158</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>452.5884402785901</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869446</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589645</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>242.7955693701917</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,7 +8532,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>90.06034685691823</v>
@@ -8541,13 +8541,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>553.266865265316</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8769,7 +8769,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
-        <v>405.2384673331027</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9009,22 +9009,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>289.2815038024237</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9173,7 +9173,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9258,10 +9258,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092956</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>92.38712204931178</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069882</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416655</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,13 +11139,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>14.35770615252584</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385721</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.79510563304797</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213455</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>215.6200406684208</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531174</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>118.0013416284712</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822798</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812811</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>684752.6189181282</v>
+        <v>683248.7498837274</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>684752.6189181282</v>
+        <v>683248.7498837274</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657687.8943521177</v>
+        <v>657687.8943521176</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657687.8943521177</v>
+        <v>657687.8943521176</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660274.2408816003</v>
+        <v>660274.2408816002</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.6233267486</v>
       </c>
       <c r="C2" t="n">
-        <v>631162.6233267491</v>
+        <v>631162.6233267486</v>
       </c>
       <c r="D2" t="n">
         <v>631162.6233267488</v>
       </c>
       <c r="E2" t="n">
-        <v>593166.4293913346</v>
+        <v>593166.4293913344</v>
       </c>
       <c r="F2" t="n">
-        <v>593166.4293913348</v>
+        <v>593166.4293913343</v>
       </c>
       <c r="G2" t="n">
-        <v>631162.6233267487</v>
+        <v>631162.623326749</v>
       </c>
       <c r="H2" t="n">
         <v>631162.6233267491</v>
@@ -26335,25 +26335,25 @@
         <v>631162.623326749</v>
       </c>
       <c r="J2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.6233267485</v>
       </c>
       <c r="K2" t="n">
+        <v>631162.6233267486</v>
+      </c>
+      <c r="L2" t="n">
+        <v>631162.6233267492</v>
+      </c>
+      <c r="M2" t="n">
+        <v>631162.6233267491</v>
+      </c>
+      <c r="N2" t="n">
         <v>631162.6233267487</v>
-      </c>
-      <c r="L2" t="n">
-        <v>631162.6233267502</v>
-      </c>
-      <c r="M2" t="n">
-        <v>631162.6233267492</v>
-      </c>
-      <c r="N2" t="n">
-        <v>631162.6233267493</v>
       </c>
       <c r="O2" t="n">
         <v>595752.7759208155</v>
       </c>
       <c r="P2" t="n">
-        <v>595752.7759208156</v>
+        <v>595752.7759208154</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343509</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.1223860264</v>
+        <v>26460.41160941832</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.9558730143</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.85189012250345e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670107</v>
+        <v>46725.80335481251</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015679</v>
+        <v>18983.55983015682</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224181.544079761</v>
+        <v>229389.8493215837</v>
       </c>
       <c r="C4" t="n">
-        <v>224181.5440797611</v>
+        <v>229389.8493215837</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>161760.5563326217</v>
+        <v>161760.5563326215</v>
       </c>
       <c r="F4" t="n">
         <v>161760.5563326216</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
-        <v>187115.3694404866</v>
+        <v>187115.3694404867</v>
       </c>
       <c r="K4" t="n">
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186792.5147858255</v>
+        <v>186659.1201767708</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
-        <v>163435.1722316129</v>
+        <v>163435.172231613</v>
       </c>
       <c r="P4" t="n">
-        <v>163435.1722316129</v>
+        <v>163435.172231613</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446768</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163065.2208244874</v>
+        <v>167717.4404456622</v>
       </c>
       <c r="C6" t="n">
-        <v>341060.5179588385</v>
+        <v>337366.446322212</v>
       </c>
       <c r="D6" t="n">
-        <v>331277.148358759</v>
+        <v>323540.859135367</v>
       </c>
       <c r="E6" t="n">
-        <v>245840.6524120917</v>
+        <v>245732.0918579904</v>
       </c>
       <c r="F6" t="n">
-        <v>376293.5835498041</v>
+        <v>376185.0229957024</v>
       </c>
       <c r="G6" t="n">
-        <v>357533.0211621112</v>
+        <v>357533.0211621115</v>
       </c>
       <c r="H6" t="n">
+        <v>386627.9770351257</v>
+      </c>
+      <c r="I6" t="n">
         <v>386627.9770351259</v>
       </c>
-      <c r="I6" t="n">
-        <v>386627.9770351257</v>
-      </c>
       <c r="J6" t="n">
-        <v>158542.3336853761</v>
+        <v>165058.6188399491</v>
       </c>
       <c r="K6" t="n">
-        <v>380388.2086323426</v>
+        <v>380388.2086323425</v>
       </c>
       <c r="L6" t="n">
-        <v>341493.861699756</v>
+        <v>337445.0244892825</v>
       </c>
       <c r="M6" t="n">
-        <v>343896.7001007575</v>
+        <v>342845.0050895692</v>
       </c>
       <c r="N6" t="n">
-        <v>386627.9770351261</v>
+        <v>386627.9770351255</v>
       </c>
       <c r="O6" t="n">
-        <v>358013.6360764951</v>
+        <v>357912.4650839066</v>
       </c>
       <c r="P6" t="n">
-        <v>376997.195906652</v>
+        <v>376896.0249140633</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="3">
@@ -26753,10 +26753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>1.997242823745321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880687</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126788</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087633</v>
+        <v>58.40725419351564</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165952</v>
+        <v>14.33013548902017</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769598</v>
+        <v>23.72944978769603</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630943</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559196</v>
+        <v>646.800714275712</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455244</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126788</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630943</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857389</v>
       </c>
       <c r="X2" t="n">
-        <v>109.6713051853989</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.61862951051233</v>
+        <v>43.99219550355051</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427962</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>125.3674150720187</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713833</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>15.34787464026375</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.7738287458713</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>40.49863421198631</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>367.0418660142877</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>9.495244038962142</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431596</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,46 +28719,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634528637</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082772</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29220,16 +29220,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634528637</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29296,16 +29296,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29314,10 +29314,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29536,7 +29536,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29706,7 +29706,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
-        <v>26.78466270502204</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539249</v>
+        <v>103.2865954513699</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539249</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539249</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>58.99686212484332</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539249</v>
+        <v>13.98970481639273</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30408,16 +30408,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023183</v>
+        <v>36.24905561693101</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>36.24905561693171</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023183</v>
+        <v>36.24905561693103</v>
       </c>
       <c r="O46" t="n">
-        <v>36.24905561693171</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
   </sheetData>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.129524869426178e-13</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.318102246374109e-13</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.352988490699988e-13</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.237720141233448e-13</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32710,22 +32710,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.021333776245202e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.267054861942472e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.409842669246113e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.432655397579646e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.35281586661033e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.154597043650681e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -32795,13 +32795,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.0884973389412e-13</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.117306624578055e-13</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.022117277921815e-13</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>57.63033170286063</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>442.9301745913343</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129856</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>446.4377369235569</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643542</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.0969745740193</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129856</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>120.4356337089906</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>360.2013182292782</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700756</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>98.29687095179952</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>467.8947524111493</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5509084442139</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35583,10 +35583,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.2933506465097</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215689</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35978,10 +35978,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133861</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716088</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237747</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528405</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828092</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907913</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,10 +36610,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36832,7 +36832,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004798</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37002,7 +37002,7 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113952</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
         <v>215.0783106122746</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>172.895544431111</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723505</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605126</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.299058364984</v>
+        <v>289.9992824624291</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659158</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176578</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>247.1701735776353</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288836</v>
+        <v>199.0297391913515</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636431</v>
       </c>
       <c r="P34" t="n">
-        <v>230.673407491883</v>
+        <v>237.1168699645224</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640773</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807277</v>
+        <v>6.174568144771941</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>200.5973051540106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
         <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038432</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807277</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>221.2890899918898</v>
       </c>
       <c r="O46" t="n">
-        <v>200.5973051540106</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
         <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038432</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
